--- a/inst/extdata/echogo_demo_results/evaluation/exploratory_no_bg/summary_consensus_vs_goseq.xlsx
+++ b/inst/extdata/echogo_demo_results/evaluation/exploratory_no_bg/summary_consensus_vs_goseq.xlsx
@@ -404,16 +404,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>127</v>
+        <v>831</v>
       </c>
       <c r="D2" t="n">
-        <v>4.90147009258732</v>
+        <v>2.23189660989995</v>
       </c>
       <c r="E2" t="n">
-        <v>7.85560210612056</v>
+        <v>9.89200964473483</v>
       </c>
       <c r="F2" t="n">
-        <v>10.5886831131356</v>
+        <v>4.6478769800233</v>
       </c>
     </row>
     <row r="3">
@@ -424,16 +424,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>0.363232903022577</v>
+        <v>37.0257184132748</v>
       </c>
       <c r="E3" t="n">
-        <v>0.587204589354916</v>
+        <v>43.1074458817502</v>
       </c>
       <c r="F3" t="n">
-        <v>0.166666666666667</v>
+        <v>0.168723085545584</v>
       </c>
     </row>
     <row r="4">
@@ -444,16 +444,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="D4" t="n">
-        <v>5.02253144718065</v>
+        <v>3.44185828628774</v>
       </c>
       <c r="E4" t="n">
-        <v>7.35266308731235</v>
+        <v>17.7331431157574</v>
       </c>
       <c r="F4" t="n">
-        <v>5.05536265432099</v>
+        <v>9.15711644691731</v>
       </c>
     </row>
     <row r="5">
@@ -464,16 +464,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.239714683074663</v>
+        <v>48.7936419423294</v>
       </c>
       <c r="E5" t="n">
-        <v>0.239714683074663</v>
+        <v>49.6305662790581</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0763309113015285</v>
+        <v>0.164037720888083</v>
       </c>
     </row>
     <row r="6">
@@ -484,16 +484,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="D6" t="n">
-        <v>5.32275148440288</v>
+        <v>2.18193604527291</v>
       </c>
       <c r="E6" t="n">
-        <v>6.08475698238861</v>
+        <v>15.7577643079746</v>
       </c>
       <c r="F6" t="n">
-        <v>84.9137931034483</v>
+        <v>6.32017876504663</v>
       </c>
     </row>
     <row r="7">
@@ -504,16 +504,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0.181625531875795</v>
+        <v>30.1531063440559</v>
       </c>
       <c r="E7" t="n">
-        <v>0.219175324162951</v>
+        <v>37.2106417882747</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0882641398126982</v>
+        <v>0.163478647686833</v>
       </c>
     </row>
   </sheetData>
